--- a/biology/Microbiologie/Haloferax/Haloferax.xlsx
+++ b/biology/Microbiologie/Haloferax/Haloferax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Haloferax est un genre d’Archaea appartenant au phyllum des Euryarchaeota et à l’ordre des Halobacteriales. Les cellules sont des bâtonnets mobiles pléomorphes ou des disques aplatis, aérobies stricts. Ce sont des organismes halophiles.  La culture est possible sur des milieux contenant une forte concentration en sel. Les colonies sont mucoïdes.
 Haloferax volcanii a été à l'origine isolée de la Mer Morte et du Grand Lac Salé. C'est une des deux seules espèces d'archées chez qui des processus de transferts génétiques ont été démontrés. Des outils génétiques ont ainsi été développés chez Haloferax volcanii et cette espèce est un bon modèle pour l'étude des mécanismes de recombinaison et de réparation de l'ADN.
@@ -524,9 +536,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 janv. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 janv. 2011) :
 Haloferax alexandrinus
 Haloferax antrum
 Haloferax berberensis
